--- a/data/CB_HAB/HAB_MAP_Data_2016.xlsx
+++ b/data/CB_HAB/HAB_MAP_Data_2016.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Chesapeake_Bay_HABS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sean.hardison\Downloads\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22176" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2016'!$A$110:$H$150</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -48,6 +48,15 @@
     <t>Sample Location</t>
   </si>
   <si>
+    <t>Sample Date</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 76.9582
 </t>
   </si>
@@ -526,25 +535,16 @@
     <t>under warning, water column, advisory to be lifted, second HAB spp free sample</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
     <t>cells_per_ml</t>
-  </si>
-  <si>
-    <t>species</t>
-  </si>
-  <si>
-    <t>decimalLatitude</t>
-  </si>
-  <si>
-    <t>decimalLongitude</t>
-  </si>
-  <si>
-    <t>date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -818,11 +818,11 @@
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 6" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normal 4" xfId="2"/>
+    <cellStyle name="Normal 5" xfId="3"/>
+    <cellStyle name="Normal 6" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -913,23 +913,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -965,23 +948,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1157,11 +1123,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1180,34 +1146,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>169</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>5</v>
@@ -1224,7 +1190,7 @@
         <v>38.234000000000002</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>2</v>
@@ -1322,7 +1288,7 @@
         <v>42572</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5">
         <v>37.631681999999998</v>
@@ -1332,10 +1298,10 @@
         <v>77.647925999999998</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G6" s="5">
         <v>20000</v>
@@ -1349,7 +1315,7 @@
         <v>42570</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5">
         <v>37.406711000000001</v>
@@ -1358,10 +1324,10 @@
         <v>76.939268999999996</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G7" s="5">
         <v>8100</v>
@@ -1370,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -1378,7 +1344,7 @@
         <v>42570</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5">
         <v>37.405765000000002</v>
@@ -1387,10 +1353,10 @@
         <v>76.939443999999995</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G8" s="5">
         <v>9400</v>
@@ -1399,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -1407,7 +1373,7 @@
         <v>42582</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5">
         <v>37.245600000000003</v>
@@ -1419,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G9" s="5">
         <v>3000</v>
@@ -1433,7 +1399,7 @@
         <v>42584</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5">
         <v>37.604537200000003</v>
@@ -1442,7 +1408,7 @@
         <v>77.606009700000001</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>0</v>
@@ -1453,7 +1419,7 @@
         <v>42585</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5">
         <v>37.291600000000003</v>
@@ -1462,10 +1428,10 @@
         <v>76.534999999999997</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G11" s="5">
         <v>6500</v>
@@ -1479,7 +1445,7 @@
         <v>42586</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5">
         <v>37.241</v>
@@ -1488,10 +1454,10 @@
         <v>76.508300000000006</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G12" s="5">
         <v>2080</v>
@@ -1505,7 +1471,7 @@
         <v>42586</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5">
         <v>38.142359999999996</v>
@@ -1514,13 +1480,13 @@
         <v>77.911321000000001</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -1528,7 +1494,7 @@
         <v>42586</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5">
         <v>38.142474999999997</v>
@@ -1537,13 +1503,13 @@
         <v>77.924977999999996</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -1551,7 +1517,7 @@
         <v>42591</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" s="5">
         <v>37.229300000000002</v>
@@ -1560,10 +1526,10 @@
         <v>-76.491600000000005</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G15" s="5">
         <v>6900</v>
@@ -1577,7 +1543,7 @@
         <v>42591</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" s="5">
         <v>37.229300000000002</v>
@@ -1586,10 +1552,10 @@
         <v>-76.491600000000005</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G16" s="5">
         <v>340</v>
@@ -1603,7 +1569,7 @@
         <v>42593</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C17" s="5">
         <v>37.0931</v>
@@ -1612,10 +1578,10 @@
         <v>76.297300000000007</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G17" s="5">
         <v>8080</v>
@@ -1629,7 +1595,7 @@
         <v>42593</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C18" s="5">
         <v>37.222200000000001</v>
@@ -1641,7 +1607,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G18" s="5">
         <v>19200</v>
@@ -1655,7 +1621,7 @@
         <v>42597</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C19" s="5">
         <v>37.412739999999999</v>
@@ -1664,16 +1630,16 @@
         <v>76.709680000000006</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G19" s="5">
         <v>65700</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I19" s="5">
         <v>1</v>
@@ -1682,7 +1648,7 @@
         <v>3.19</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -1690,7 +1656,7 @@
         <v>42597</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C20" s="5">
         <v>37.412950000000002</v>
@@ -1699,16 +1665,16 @@
         <v>76.709845000000001</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G20" s="5">
         <v>67400</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I20" s="5">
         <v>1</v>
@@ -1717,7 +1683,7 @@
         <v>1.56</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -1725,7 +1691,7 @@
         <v>42597</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C21" s="5">
         <v>37.413426999999999</v>
@@ -1734,16 +1700,16 @@
         <v>76.710914000000002</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G21" s="5">
         <v>63300</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I21" s="5">
         <v>1</v>
@@ -1752,7 +1718,7 @@
         <v>5.72</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -1760,7 +1726,7 @@
         <v>42592</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C22" s="5">
         <v>37.235750000000003</v>
@@ -1769,10 +1735,10 @@
         <v>-76.492400000000004</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G22" s="5">
         <v>12168</v>
@@ -1783,7 +1749,7 @@
         <v>42592</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C23" s="5">
         <v>37.181719999999999</v>
@@ -1792,10 +1758,10 @@
         <v>-76.296899999999994</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G23" s="5">
         <v>690</v>
@@ -1806,7 +1772,7 @@
         <v>42592</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C24" s="5">
         <v>37.235250000000001</v>
@@ -1815,10 +1781,10 @@
         <v>-76.484499999999997</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G24" s="5">
         <v>17056</v>
@@ -1829,7 +1795,7 @@
         <v>42592</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C25" s="5">
         <v>37.179879999999997</v>
@@ -1838,10 +1804,10 @@
         <v>-76.283900000000003</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G25" s="5">
         <v>4090</v>
@@ -1852,7 +1818,7 @@
         <v>42591</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C26" s="5">
         <v>37.236629999999998</v>
@@ -1861,10 +1827,10 @@
         <v>-76.478200000000001</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G26" s="5">
         <v>1680</v>
@@ -1875,7 +1841,7 @@
         <v>42597</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C27" s="5">
         <v>36.919060000000002</v>
@@ -1884,10 +1850,10 @@
         <v>-76.476699999999994</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G27" s="5">
         <v>1360</v>
@@ -1898,7 +1864,7 @@
         <v>42597</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C28" s="5">
         <v>36.993079999999999</v>
@@ -1907,10 +1873,10 @@
         <v>-76.481999999999999</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G28" s="5">
         <v>4680</v>
@@ -1921,7 +1887,7 @@
         <v>42597</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C29" s="5">
         <v>37.006500000000003</v>
@@ -1930,10 +1896,10 @@
         <v>-76.468000000000004</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G29" s="5">
         <v>2960</v>
@@ -1944,7 +1910,7 @@
         <v>42600</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C30" s="5">
         <v>36.99689</v>
@@ -1953,10 +1919,10 @@
         <v>-76.309399999999997</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G30" s="5">
         <v>5</v>
@@ -1967,7 +1933,7 @@
         <v>42600</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C31" s="5">
         <v>36.965170000000001</v>
@@ -1976,10 +1942,10 @@
         <v>-76.256399999999999</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G31" s="5">
         <v>11</v>
@@ -1990,7 +1956,7 @@
         <v>42600</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C32" s="5">
         <v>36.954859999999996</v>
@@ -1999,10 +1965,10 @@
         <v>-76.241799999999998</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G32" s="5">
         <v>94</v>
@@ -2013,7 +1979,7 @@
         <v>42600</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C33" s="5">
         <v>36.934440000000002</v>
@@ -2022,10 +1988,10 @@
         <v>-76.187399999999997</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G33" s="5">
         <v>6</v>
@@ -2036,7 +2002,7 @@
         <v>42600</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C34" s="5">
         <v>36.933999999999997</v>
@@ -2045,10 +2011,10 @@
         <v>-76.158900000000003</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G34" s="5">
         <v>1452</v>
@@ -2059,7 +2025,7 @@
         <v>42600</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C35" s="5">
         <v>36.926780000000001</v>
@@ -2068,10 +2034,10 @@
         <v>-76.124600000000001</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G35" s="5">
         <v>1503</v>
@@ -2082,7 +2048,7 @@
         <v>42600</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C36" s="5">
         <v>36.968829999999997</v>
@@ -2091,10 +2057,10 @@
         <v>-76.1126</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G36" s="5">
         <v>372</v>
@@ -2105,7 +2071,7 @@
         <v>42600</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C37" s="5">
         <v>36.974580000000003</v>
@@ -2114,10 +2080,10 @@
         <v>-76.248699999999999</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G37" s="5">
         <v>1098</v>
@@ -2128,7 +2094,7 @@
         <v>42600</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C38" s="5">
         <v>36.95017</v>
@@ -2137,10 +2103,10 @@
         <v>-76.341200000000001</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G38" s="5">
         <v>3295</v>
@@ -2151,7 +2117,7 @@
         <v>42600</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C39" s="5">
         <v>37.223965999999997</v>
@@ -2160,10 +2126,10 @@
         <v>-76.408593999999994</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G39" s="5">
         <v>2300</v>
@@ -2174,7 +2140,7 @@
         <v>42600</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C40" s="5">
         <v>37.223965999999997</v>
@@ -2183,10 +2149,10 @@
         <v>-76.408593999999994</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G40" s="5">
         <v>8400</v>
@@ -2197,7 +2163,7 @@
         <v>42604</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C41" s="5">
         <v>37.413153800000003</v>
@@ -2206,25 +2172,25 @@
         <v>-76.710517999999993</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G41" s="5">
         <v>7120000</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I41" s="5">
         <v>1</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
@@ -2232,7 +2198,7 @@
         <v>42604</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C42" s="5">
         <v>37.413153800000003</v>
@@ -2241,16 +2207,16 @@
         <v>-76.710517999999993</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G42" s="5">
         <v>42000</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I42" s="5">
         <v>1</v>
@@ -2264,7 +2230,7 @@
         <v>42605</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C43" s="5">
         <v>37.253444000000002</v>
@@ -2273,10 +2239,10 @@
         <v>-76.401111</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G43" s="5">
         <v>1800</v>
@@ -2287,7 +2253,7 @@
         <v>42605</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C44" s="5">
         <v>37.249833000000002</v>
@@ -2296,10 +2262,10 @@
         <v>-76.450083000000006</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G44" s="5">
         <v>5300</v>
@@ -2310,7 +2276,7 @@
         <v>42605</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C45" s="5">
         <v>37.249417000000001</v>
@@ -2319,10 +2285,10 @@
         <v>-76.515556000000004</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G45" s="5">
         <v>11900</v>
@@ -2333,7 +2299,7 @@
         <v>42604</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C46" s="5">
         <v>36.916477999999998</v>
@@ -2342,10 +2308,10 @@
         <v>-76.497910000000005</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G46" s="5">
         <v>20</v>
@@ -2356,7 +2322,7 @@
         <v>42606</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C47" s="5">
         <v>36.693811109999999</v>
@@ -2365,16 +2331,16 @@
         <v>-75.922494439999994</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G47" s="5">
         <v>2.75</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
@@ -2382,7 +2348,7 @@
         <v>42606</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C48" s="5">
         <v>36.746561110000002</v>
@@ -2391,16 +2357,16 @@
         <v>-75.942916600000004</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G48" s="5">
         <v>1.5</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
@@ -2408,7 +2374,7 @@
         <v>42606</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C49" s="5">
         <v>36.78201</v>
@@ -2417,16 +2383,16 @@
         <v>-75.956093999999993</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G49" s="5">
         <v>6.25</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
@@ -2434,7 +2400,7 @@
         <v>42606</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C50" s="5">
         <v>36.818080000000002</v>
@@ -2443,16 +2409,16 @@
         <v>-75.966309999999993</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G50" s="5">
         <v>11.25</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
@@ -2460,7 +2426,7 @@
         <v>42606</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C51" s="5">
         <v>36.834049999999998</v>
@@ -2469,16 +2435,16 @@
         <v>-75.968936099999993</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G51" s="5">
         <v>3</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
@@ -2486,7 +2452,7 @@
         <v>42606</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C52" s="5">
         <v>36.848908299999998</v>
@@ -2495,16 +2461,16 @@
         <v>-75.973038000000003</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G52" s="5">
         <v>3</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
@@ -2512,7 +2478,7 @@
         <v>42606</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C53" s="5">
         <v>36.879193999999998</v>
@@ -2521,16 +2487,16 @@
         <v>-75.981510999999998</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G53" s="5">
         <v>2</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
@@ -2538,7 +2504,7 @@
         <v>42606</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C54" s="5">
         <v>36.912886</v>
@@ -2547,16 +2513,16 @@
         <v>-75.989742000000007</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G54" s="5">
         <v>3</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
@@ -2564,7 +2530,7 @@
         <v>42606</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C55" s="5">
         <v>36.919944000000001</v>
@@ -2573,16 +2539,16 @@
         <v>-76.054406</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G55" s="5">
         <v>1</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
@@ -2590,7 +2556,7 @@
         <v>42606</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C56" s="5">
         <v>36.909208</v>
@@ -2599,16 +2565,16 @@
         <v>-76.089189000000005</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G56" s="5">
         <v>1</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
@@ -2616,7 +2582,7 @@
         <v>42606</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C57" s="5">
         <v>36.930610999999999</v>
@@ -2625,16 +2591,16 @@
         <v>-76.186197000000007</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G57" s="5">
         <v>0</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
@@ -2642,7 +2608,7 @@
         <v>42606</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C58" s="5">
         <v>36.955993999999997</v>
@@ -2651,16 +2617,16 @@
         <v>-76.251703000000006</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G58" s="5">
         <v>1</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
@@ -2668,7 +2634,7 @@
         <v>42606</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C59" s="5">
         <v>36.944206999999999</v>
@@ -2677,16 +2643,16 @@
         <v>-76.216294000000005</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G59" s="5">
         <v>0.5</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
@@ -2694,7 +2660,7 @@
         <v>42606</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C60" s="5">
         <v>36.972197000000001</v>
@@ -2703,16 +2669,16 @@
         <v>-76.285498000000004</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G60" s="5">
         <v>0.5</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
@@ -2720,7 +2686,7 @@
         <v>42606</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C61" s="5">
         <v>36.960147999999997</v>
@@ -2729,16 +2695,16 @@
         <v>-76.244255999999993</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G61" s="5">
         <v>0</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
@@ -2746,7 +2712,7 @@
         <v>42606</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C62" s="5">
         <v>36.971386000000003</v>
@@ -2755,16 +2721,16 @@
         <v>-76.262893000000005</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G62" s="5">
         <v>2.5</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
@@ -2772,7 +2738,7 @@
         <v>42606</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C63" s="5">
         <v>36.934539999999998</v>
@@ -2781,16 +2747,16 @@
         <v>-76.181067999999996</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G63" s="5">
         <v>6.8</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
@@ -2798,7 +2764,7 @@
         <v>42604</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C64" s="5">
         <v>36.9573888888889</v>
@@ -2807,16 +2773,16 @@
         <v>-76.352388888888896</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G64" s="5">
         <v>458</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
@@ -2824,7 +2790,7 @@
         <v>42604</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C65" s="5">
         <v>36.934277777777801</v>
@@ -2833,16 +2799,16 @@
         <v>-76.358722222222198</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G65" s="5">
         <v>537</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
@@ -2850,7 +2816,7 @@
         <v>42604</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C66" s="5">
         <v>36.9588888888889</v>
@@ -2859,16 +2825,16 @@
         <v>-76.3488055555556</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G66" s="5">
         <v>750</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
@@ -2876,7 +2842,7 @@
         <v>42604</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C67" s="5">
         <v>36.894972222222201</v>
@@ -2885,16 +2851,16 @@
         <v>-76.331444444444401</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G67" s="5">
         <v>963</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
@@ -2902,7 +2868,7 @@
         <v>42604</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C68" s="5">
         <v>36.841888888888903</v>
@@ -2911,16 +2877,16 @@
         <v>-76.3634722222222</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G68" s="5">
         <v>1115</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
@@ -2928,7 +2894,7 @@
         <v>42604</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C69" s="5">
         <v>36.908388888888901</v>
@@ -2937,16 +2903,16 @@
         <v>-76.336277777777795</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G69" s="5">
         <v>1577</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
@@ -2954,7 +2920,7 @@
         <v>42604</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C70" s="5">
         <v>36.908279</v>
@@ -2963,16 +2929,16 @@
         <v>-76.311718999999997</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G70" s="5">
         <v>1889</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
@@ -2980,7 +2946,7 @@
         <v>42604</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C71" s="5">
         <v>36.893472222222201</v>
@@ -2989,16 +2955,16 @@
         <v>-76.327527777777803</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G71" s="5">
         <v>2091</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
@@ -3006,7 +2972,7 @@
         <v>42604</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C72" s="5">
         <v>36.861944444444397</v>
@@ -3015,16 +2981,16 @@
         <v>-76.324777777777797</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G72" s="5">
         <v>1509</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
@@ -3032,7 +2998,7 @@
         <v>42604</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C73" s="5">
         <v>36.8978055555556</v>
@@ -3041,16 +3007,16 @@
         <v>-76.321277777777794</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G73" s="5">
         <v>2155</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
@@ -3058,7 +3024,7 @@
         <v>42604</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C74" s="5">
         <v>36.837166666666697</v>
@@ -3067,16 +3033,16 @@
         <v>-76.382333333333307</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G74" s="5">
         <v>3752</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
@@ -3084,7 +3050,7 @@
         <v>42604</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C75" s="5">
         <v>36.904722222222198</v>
@@ -3093,16 +3059,16 @@
         <v>-76.315888888888907</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G75" s="5">
         <v>4259</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
@@ -3110,7 +3076,7 @@
         <v>42604</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C76" s="5">
         <v>36.855555555555597</v>
@@ -3119,16 +3085,16 @@
         <v>-76.310472222222202</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G76" s="5">
         <v>3060</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
@@ -3136,7 +3102,7 @@
         <v>42611</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C77" s="5">
         <v>37.412950000000002</v>
@@ -3145,16 +3111,16 @@
         <v>76.709845000000001</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G77" s="5">
         <v>168000</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I77" s="5">
         <v>1</v>
@@ -3163,7 +3129,7 @@
         <v>8.48</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
@@ -3171,7 +3137,7 @@
         <v>42611</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C78" s="5">
         <v>37.412950000000002</v>
@@ -3180,16 +3146,16 @@
         <v>76.709845000000001</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G78" s="5">
         <v>822000</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I78" s="5">
         <v>1</v>
@@ -3198,7 +3164,7 @@
         <v>3.67</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
@@ -3206,28 +3172,28 @@
         <v>42619</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G79" s="5">
         <v>2424800</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I79" s="5">
         <v>1</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
@@ -3235,19 +3201,19 @@
         <v>42619</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G80" s="5">
         <v>117000</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I80" s="5">
         <v>1</v>
@@ -3256,7 +3222,7 @@
         <v>3.2</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -3264,7 +3230,7 @@
         <v>42607</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C81" s="5">
         <v>37.468662000000002</v>
@@ -3273,16 +3239,16 @@
         <v>-77.631068999999997</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G81" s="5">
         <v>49000</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I81" s="5">
         <v>1</v>
@@ -3291,7 +3257,7 @@
         <v>1.07</v>
       </c>
       <c r="K81" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
@@ -3299,7 +3265,7 @@
         <v>42613</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C82" s="5">
         <v>37.468662000000002</v>
@@ -3308,25 +3274,25 @@
         <v>-77.631068999999997</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G82" s="5">
         <v>220</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I82" s="5">
         <v>0</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
@@ -3334,7 +3300,7 @@
         <v>42613</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C83" s="5">
         <v>37.468662000000002</v>
@@ -3343,25 +3309,25 @@
         <v>-77.631068999999997</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G83" s="5">
         <v>6300</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I83" s="5">
         <v>1</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -3369,7 +3335,7 @@
         <v>42620</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C84" s="12">
         <v>37.009687</v>
@@ -3378,10 +3344,10 @@
         <v>-76.464315999999997</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G84" s="12">
         <v>387</v>
@@ -3390,7 +3356,7 @@
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
       <c r="K84" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -3398,7 +3364,7 @@
         <v>42625</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C85" s="12">
         <v>36.995109999999997</v>
@@ -3407,10 +3373,10 @@
         <v>-76.351579999999998</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G85" s="12">
         <v>160</v>
@@ -3419,7 +3385,7 @@
       <c r="I85" s="12"/>
       <c r="J85" s="12"/>
       <c r="K85" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -3427,7 +3393,7 @@
         <v>42625</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C86" s="12">
         <v>36.984470000000002</v>
@@ -3436,10 +3402,10 @@
         <v>-76.364140000000006</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G86" s="12">
         <v>889</v>
@@ -3448,7 +3414,7 @@
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
       <c r="K86" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -3456,7 +3422,7 @@
         <v>42625</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C87" s="12">
         <v>36.936169999999997</v>
@@ -3465,10 +3431,10 @@
         <v>-76.411060000000006</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G87" s="12">
         <v>98</v>
@@ -3477,7 +3443,7 @@
       <c r="I87" s="12"/>
       <c r="J87" s="12"/>
       <c r="K87" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -3485,7 +3451,7 @@
         <v>42625</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C88" s="12">
         <v>36.951479999999997</v>
@@ -3494,10 +3460,10 @@
         <v>-76.382310000000004</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G88" s="12">
         <v>585</v>
@@ -3506,7 +3472,7 @@
       <c r="I88" s="12"/>
       <c r="J88" s="12"/>
       <c r="K88" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -3514,7 +3480,7 @@
         <v>42625</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C89" s="12">
         <v>36.909689999999998</v>
@@ -3523,10 +3489,10 @@
         <v>-76.342780000000005</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G89" s="12">
         <v>268</v>
@@ -3535,7 +3501,7 @@
       <c r="I89" s="12"/>
       <c r="J89" s="12"/>
       <c r="K89" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -3543,7 +3509,7 @@
         <v>42625</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C90" s="12">
         <v>36.898719999999997</v>
@@ -3552,10 +3518,10 @@
         <v>-76.329359999999994</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G90" s="12">
         <v>54</v>
@@ -3564,7 +3530,7 @@
       <c r="I90" s="12"/>
       <c r="J90" s="12"/>
       <c r="K90" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -3572,7 +3538,7 @@
         <v>42625</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C91" s="12">
         <v>36.991079999999997</v>
@@ -3581,10 +3547,10 @@
         <v>-76.310720000000003</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G91" s="12">
         <v>3150</v>
@@ -3593,7 +3559,7 @@
       <c r="I91" s="12"/>
       <c r="J91" s="12"/>
       <c r="K91" s="12" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
@@ -3601,7 +3567,7 @@
         <v>42626</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C92" s="12">
         <v>37.469240999999997</v>
@@ -3610,10 +3576,10 @@
         <v>-77.630961999999997</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G92" s="12">
         <v>160</v>
@@ -3623,10 +3589,10 @@
         <v>0</v>
       </c>
       <c r="J92" s="12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K92" s="12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
@@ -3634,7 +3600,7 @@
         <v>42626</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C93" s="12">
         <v>37.469240999999997</v>
@@ -3643,10 +3609,10 @@
         <v>-77.630961999999997</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G93" s="12">
         <v>170</v>
@@ -3656,10 +3622,10 @@
         <v>0</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
@@ -3667,7 +3633,7 @@
         <v>42626</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C94" s="12">
         <v>37.468662000000002</v>
@@ -3676,10 +3642,10 @@
         <v>-77.631068999999997</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G94" s="12">
         <v>230</v>
@@ -3688,7 +3654,7 @@
       <c r="I94" s="12"/>
       <c r="J94" s="12"/>
       <c r="K94" s="12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
@@ -3696,7 +3662,7 @@
         <v>42625</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C95" s="12">
         <v>37.412950000000002</v>
@@ -3705,25 +3671,25 @@
         <v>76.709845000000001</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G95" s="16">
         <v>2769000</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I95" s="12">
         <v>1</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K95" s="12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
@@ -3731,7 +3697,7 @@
         <v>42625</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C96" s="12">
         <v>37.412950000000002</v>
@@ -3740,16 +3706,16 @@
         <v>76.709845000000001</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G96" s="16">
         <v>177800</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I96" s="12">
         <v>1</v>
@@ -3758,7 +3724,7 @@
         <v>2.09</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
@@ -3766,7 +3732,7 @@
         <v>42605</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C97" s="12">
         <v>37.245600000000003</v>
@@ -3778,7 +3744,7 @@
         <v>2</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G97" s="12">
         <v>21418</v>
@@ -3793,7 +3759,7 @@
         <v>42608</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C98" s="12">
         <v>37.252899999999997</v>
@@ -3805,7 +3771,7 @@
         <v>2</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G98" s="12">
         <v>10028</v>
@@ -3820,7 +3786,7 @@
         <v>42611</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C99" s="12">
         <v>37.247599999999998</v>
@@ -3832,7 +3798,7 @@
         <v>2</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G99" s="12">
         <v>119772</v>
@@ -3847,7 +3813,7 @@
         <v>42612</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C100" s="12">
         <v>37.247799999999998</v>
@@ -3859,7 +3825,7 @@
         <v>2</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G100" s="12">
         <v>3878</v>
@@ -3874,7 +3840,7 @@
         <v>42612</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C101" s="12">
         <v>37.2211</v>
@@ -3886,7 +3852,7 @@
         <v>2</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G101" s="12">
         <v>3400</v>
@@ -3901,7 +3867,7 @@
         <v>42612</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C102" s="12">
         <v>37.2211</v>
@@ -3913,7 +3879,7 @@
         <v>2</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G102" s="12">
         <v>2283</v>
@@ -3928,7 +3894,7 @@
         <v>42612</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C103" s="12">
         <v>37.245600000000003</v>
@@ -3940,7 +3906,7 @@
         <v>2</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G103" s="12">
         <v>5126</v>
@@ -3955,7 +3921,7 @@
         <v>42612</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C104" s="12">
         <v>37.247599999999998</v>
@@ -3967,7 +3933,7 @@
         <v>2</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G104" s="12">
         <v>61244</v>
@@ -3982,7 +3948,7 @@
         <v>42612</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C105" s="12">
         <v>37.248800000000003</v>
@@ -3994,7 +3960,7 @@
         <v>2</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G105" s="12">
         <v>12392</v>
@@ -4009,7 +3975,7 @@
         <v>42612</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C106" s="12">
         <v>37.225299999999997</v>
@@ -4021,7 +3987,7 @@
         <v>2</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G106" s="12">
         <v>66024</v>
@@ -4036,7 +4002,7 @@
         <v>42613</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C107" s="12">
         <v>37.267800000000001</v>
@@ -4048,7 +4014,7 @@
         <v>2</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G107" s="12">
         <v>4116</v>
@@ -4063,7 +4029,7 @@
         <v>42614</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C108" s="12">
         <v>37.247599999999998</v>
@@ -4075,7 +4041,7 @@
         <v>2</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G108" s="12">
         <v>1400</v>
@@ -4090,7 +4056,7 @@
         <v>42622</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C109" s="12">
         <v>37.621600000000001</v>
@@ -4102,7 +4068,7 @@
         <v>2</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G109" s="12">
         <v>1800</v>
@@ -4117,7 +4083,7 @@
         <v>42627</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
@@ -4125,7 +4091,7 @@
         <v>2</v>
       </c>
       <c r="F110" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G110" s="23">
         <v>10</v>
@@ -4140,7 +4106,7 @@
         <v>42627</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C111" s="17"/>
       <c r="D111" s="17"/>
@@ -4148,7 +4114,7 @@
         <v>2</v>
       </c>
       <c r="F111" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G111" s="23">
         <v>1000</v>
@@ -4163,7 +4129,7 @@
         <v>42627</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C112" s="19">
         <v>37.245600000000003</v>
@@ -4175,10 +4141,10 @@
         <v>2</v>
       </c>
       <c r="F112" s="19" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G112" s="19" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="12"/>
@@ -4190,7 +4156,7 @@
         <v>42627</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C113" s="19">
         <v>37.238500000000002</v>
@@ -4202,7 +4168,7 @@
         <v>2</v>
       </c>
       <c r="F113" s="19" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G113" s="19">
         <v>650</v>
@@ -4217,7 +4183,7 @@
         <v>42628</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C114" s="19">
         <v>37.223945999999998</v>
@@ -4229,7 +4195,7 @@
         <v>2</v>
       </c>
       <c r="F114" s="19" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G114" s="20">
         <v>36300</v>
@@ -4244,7 +4210,7 @@
         <v>42628</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C115" s="19">
         <v>37.187939999999998</v>
@@ -4256,7 +4222,7 @@
         <v>2</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G115" s="20">
         <v>70300</v>
@@ -4271,7 +4237,7 @@
         <v>42628</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C116" s="19">
         <v>37.203000000000003</v>
@@ -4283,7 +4249,7 @@
         <v>2</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G116" s="20">
         <v>11000</v>
@@ -4298,7 +4264,7 @@
         <v>42628</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C117" s="19">
         <v>37.239800000000002</v>
@@ -4310,7 +4276,7 @@
         <v>2</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G117" s="20">
         <v>9000</v>
@@ -4325,7 +4291,7 @@
         <v>42628</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C118" s="19">
         <v>37.245600000000003</v>
@@ -4337,7 +4303,7 @@
         <v>2</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G118" s="21">
         <v>556</v>
@@ -4352,7 +4318,7 @@
         <v>42628</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C119" s="19">
         <v>37.238500000000002</v>
@@ -4364,7 +4330,7 @@
         <v>2</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G119" s="21">
         <v>366</v>
@@ -4379,15 +4345,15 @@
         <v>42628</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C120" s="23"/>
       <c r="D120" s="23"/>
       <c r="E120" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F120" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G120" s="24">
         <v>1</v>
@@ -4401,15 +4367,15 @@
         <v>42628</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C121" s="23"/>
       <c r="D121" s="23"/>
       <c r="E121" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F121" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G121" s="24">
         <v>351</v>
@@ -4423,15 +4389,15 @@
         <v>42628</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C122" s="23"/>
       <c r="D122" s="23"/>
       <c r="E122" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F122" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G122" s="24">
         <v>22</v>
@@ -4445,15 +4411,15 @@
         <v>42628</v>
       </c>
       <c r="B123" s="23" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C123" s="23"/>
       <c r="D123" s="23"/>
       <c r="E123" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F123" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G123" s="24">
         <v>117</v>
@@ -4467,7 +4433,7 @@
         <v>42628</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C124" s="27">
         <v>36.955509999999997</v>
@@ -4476,10 +4442,10 @@
         <v>-76.250910000000005</v>
       </c>
       <c r="E124" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F124" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G124" s="24">
         <v>67</v>
@@ -4493,15 +4459,15 @@
         <v>42628</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C125" s="23"/>
       <c r="D125" s="23"/>
       <c r="E125" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F125" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G125" s="24">
         <v>17</v>
@@ -4515,7 +4481,7 @@
         <v>42628</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C126" s="27">
         <v>36.964219999999997</v>
@@ -4524,10 +4490,10 @@
         <v>-76.272409999999994</v>
       </c>
       <c r="E126" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F126" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G126" s="24">
         <v>0</v>
@@ -4541,7 +4507,7 @@
         <v>42628</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C127" s="27">
         <v>36.959389999999999</v>
@@ -4550,10 +4516,10 @@
         <v>-76.257900000000006</v>
       </c>
       <c r="E127" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F127" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G127" s="24">
         <v>38</v>
@@ -4567,7 +4533,7 @@
         <v>42628</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C128" s="29">
         <v>36.931370000000001</v>
@@ -4576,10 +4542,10 @@
         <v>-76.192329999999998</v>
       </c>
       <c r="E128" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F128" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G128" s="24">
         <v>299</v>
@@ -4593,7 +4559,7 @@
         <v>42628</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C129" s="23">
         <v>36.967970000000001</v>
@@ -4602,10 +4568,10 @@
         <v>-76.27731</v>
       </c>
       <c r="E129" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F129" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G129" s="24">
         <v>2</v>
@@ -4619,7 +4585,7 @@
         <v>42627</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C130" s="23">
         <v>37.581499999999998</v>
@@ -4628,10 +4594,10 @@
         <v>-76.353700000000003</v>
       </c>
       <c r="E130" s="23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F130" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G130" s="24">
         <v>1104</v>
@@ -4639,7 +4605,7 @@
       <c r="I130" s="25"/>
       <c r="J130" s="25"/>
       <c r="K130" s="23" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="131" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -4647,7 +4613,7 @@
         <v>42630</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C131" s="23">
         <v>36.6937</v>
@@ -4656,10 +4622,10 @@
         <v>-75.922499999999999</v>
       </c>
       <c r="E131" s="23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F131" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G131" s="24">
         <v>445</v>
@@ -4667,7 +4633,7 @@
       <c r="I131" s="25"/>
       <c r="J131" s="25"/>
       <c r="K131" s="23" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="132" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -4675,7 +4641,7 @@
         <v>42630</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C132" s="23">
         <v>36.8187</v>
@@ -4684,10 +4650,10 @@
         <v>-75.966700000000003</v>
       </c>
       <c r="E132" s="23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F132" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G132" s="24">
         <v>46</v>
@@ -4695,7 +4661,7 @@
       <c r="I132" s="25"/>
       <c r="J132" s="25"/>
       <c r="K132" s="23" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -4703,7 +4669,7 @@
         <v>42630</v>
       </c>
       <c r="B133" s="23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C133" s="23">
         <v>36.830800000000004</v>
@@ -4712,10 +4678,10 @@
         <v>-75.968199999999996</v>
       </c>
       <c r="E133" s="23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F133" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G133" s="24">
         <v>1122</v>
@@ -4723,7 +4689,7 @@
       <c r="I133" s="25"/>
       <c r="J133" s="25"/>
       <c r="K133" s="23" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="134" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -4731,7 +4697,7 @@
         <v>42630</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C134" s="23">
         <v>36.843499999999999</v>
@@ -4740,10 +4706,10 @@
         <v>-75.971500000000006</v>
       </c>
       <c r="E134" s="23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F134" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G134" s="24">
         <v>354</v>
@@ -4751,7 +4717,7 @@
       <c r="I134" s="25"/>
       <c r="J134" s="25"/>
       <c r="K134" s="23" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="135" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -4759,7 +4725,7 @@
         <v>42630</v>
       </c>
       <c r="B135" s="23" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C135" s="23">
         <v>36.870800000000003</v>
@@ -4768,10 +4734,10 @@
         <v>-75.979399999999998</v>
       </c>
       <c r="E135" s="23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F135" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G135" s="24">
         <v>1884</v>
@@ -4779,7 +4745,7 @@
       <c r="I135" s="25"/>
       <c r="J135" s="25"/>
       <c r="K135" s="23" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="136" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -4787,7 +4753,7 @@
         <v>42630</v>
       </c>
       <c r="B136" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C136" s="23">
         <v>36.895099999999999</v>
@@ -4796,10 +4762,10 @@
         <v>-75.985799999999998</v>
       </c>
       <c r="E136" s="23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F136" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G136" s="24">
         <v>2074</v>
@@ -4807,7 +4773,7 @@
       <c r="I136" s="25"/>
       <c r="J136" s="25"/>
       <c r="K136" s="23" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="137" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -4815,7 +4781,7 @@
         <v>42630</v>
       </c>
       <c r="B137" s="23" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C137" s="23">
         <v>36.917099999999998</v>
@@ -4824,10 +4790,10 @@
         <v>-76.059899999999999</v>
       </c>
       <c r="E137" s="23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F137" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G137" s="24">
         <v>13</v>
@@ -4835,7 +4801,7 @@
       <c r="I137" s="25"/>
       <c r="J137" s="25"/>
       <c r="K137" s="23" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="138" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -4843,7 +4809,7 @@
         <v>42629</v>
       </c>
       <c r="B138" s="23" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C138" s="23">
         <v>37.614207999999998</v>
@@ -4852,10 +4818,10 @@
         <v>-76.433481</v>
       </c>
       <c r="E138" s="23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F138" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G138" s="24">
         <v>123</v>
@@ -4863,7 +4829,7 @@
       <c r="I138" s="25"/>
       <c r="J138" s="25"/>
       <c r="K138" s="23" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="139" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -4871,15 +4837,15 @@
         <v>42632</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C139" s="23"/>
       <c r="D139" s="23"/>
       <c r="E139" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F139" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G139" s="24">
         <v>126</v>
@@ -4893,15 +4859,15 @@
         <v>42632</v>
       </c>
       <c r="B140" s="23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C140" s="23"/>
       <c r="D140" s="23"/>
       <c r="E140" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F140" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G140" s="24">
         <v>290</v>
@@ -4915,18 +4881,18 @@
         <v>42632</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C141" s="23"/>
       <c r="D141" s="23"/>
       <c r="E141" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F141" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G141" s="24" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I141" s="25"/>
       <c r="J141" s="25"/>
@@ -4937,23 +4903,23 @@
         <v>42632</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C142" s="23"/>
       <c r="D142" s="23"/>
       <c r="E142" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F142" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G142" s="24" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I142" s="25"/>
       <c r="J142" s="25"/>
       <c r="K142" s="23" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -4961,15 +4927,15 @@
         <v>42632</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C143" s="23"/>
       <c r="D143" s="23"/>
       <c r="E143" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F143" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G143" s="24">
         <v>147</v>
@@ -4977,7 +4943,7 @@
       <c r="I143" s="25"/>
       <c r="J143" s="25"/>
       <c r="K143" s="23" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="144" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -4985,15 +4951,15 @@
         <v>42632</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C144" s="23"/>
       <c r="D144" s="23"/>
       <c r="E144" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F144" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G144" s="24">
         <v>30</v>
@@ -5001,7 +4967,7 @@
       <c r="I144" s="25"/>
       <c r="J144" s="25"/>
       <c r="K144" s="23" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="145" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -5009,15 +4975,15 @@
         <v>42632</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C145" s="23"/>
       <c r="D145" s="23"/>
       <c r="E145" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F145" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G145" s="24">
         <v>3</v>
@@ -5031,18 +4997,18 @@
         <v>42632</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C146" s="23"/>
       <c r="D146" s="23"/>
       <c r="E146" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F146" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G146" s="24" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I146" s="25"/>
       <c r="J146" s="25"/>
@@ -5053,23 +5019,23 @@
         <v>42632</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C147" s="23"/>
       <c r="D147" s="23"/>
       <c r="E147" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F147" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G147" s="24" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I147" s="25"/>
       <c r="J147" s="25"/>
       <c r="K147" s="23" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="148" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -5077,7 +5043,7 @@
         <v>42632</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C148" s="23">
         <v>36.967970000000001</v>
@@ -5086,10 +5052,10 @@
         <v>-76.27731</v>
       </c>
       <c r="E148" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F148" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G148" s="24">
         <v>32</v>
@@ -5103,7 +5069,7 @@
         <v>42632</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C149" s="23">
         <v>36.923760000000001</v>
@@ -5112,10 +5078,10 @@
         <v>76.182770000000005</v>
       </c>
       <c r="E149" s="23" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F149" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G149" s="24">
         <v>30472</v>
@@ -5130,7 +5096,7 @@
         <v>42633</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C150" s="23">
         <v>36.923760000000001</v>
@@ -5139,10 +5105,10 @@
         <v>76.182770000000005</v>
       </c>
       <c r="E150" s="23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F150" s="23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G150" s="24">
         <v>1700</v>
@@ -5157,7 +5123,7 @@
         <v>42633</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C151" s="12">
         <v>37.412950000000002</v>
@@ -5166,10 +5132,10 @@
         <v>76.709845000000001</v>
       </c>
       <c r="E151" s="19" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F151" s="19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G151" s="30">
         <v>76800</v>
@@ -5182,7 +5148,7 @@
         <v>1.84</v>
       </c>
       <c r="K151" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.35">
@@ -5190,7 +5156,7 @@
         <v>42633</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C152" s="12">
         <v>37.412950000000002</v>
@@ -5199,10 +5165,10 @@
         <v>76.709845000000001</v>
       </c>
       <c r="E152" s="19" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F152" s="19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G152" s="21">
         <v>34400</v>
@@ -5215,7 +5181,7 @@
         <v>1.85</v>
       </c>
       <c r="K152" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.35">
@@ -5223,7 +5189,7 @@
         <v>42641</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C153" s="12">
         <v>37.412950000000002</v>
@@ -5232,10 +5198,10 @@
         <v>76.709845000000001</v>
       </c>
       <c r="E153" s="19" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F153" s="19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G153" s="21">
         <v>109186900</v>
@@ -5245,10 +5211,10 @@
         <v>1</v>
       </c>
       <c r="J153" s="12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K153" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.35">
@@ -5256,7 +5222,7 @@
         <v>42641</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C154" s="12">
         <v>37.412950000000002</v>
@@ -5265,10 +5231,10 @@
         <v>76.709845000000001</v>
       </c>
       <c r="E154" s="19" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F154" s="19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G154" s="21">
         <v>45700</v>
@@ -5278,10 +5244,10 @@
         <v>1</v>
       </c>
       <c r="J154" s="12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K154" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.35">
@@ -5289,7 +5255,7 @@
         <v>42654</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C155" s="12">
         <v>37.412950000000002</v>
@@ -5298,10 +5264,10 @@
         <v>76.709845000000001</v>
       </c>
       <c r="E155" s="19" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F155" s="19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G155" s="21">
         <v>8958000</v>
@@ -5311,10 +5277,10 @@
         <v>1</v>
       </c>
       <c r="J155" s="12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K155" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.35">
@@ -5322,7 +5288,7 @@
         <v>42654</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C156" s="12">
         <v>37.412950000000002</v>
@@ -5331,10 +5297,10 @@
         <v>76.709845000000001</v>
       </c>
       <c r="E156" s="19" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F156" s="19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G156" s="21">
         <v>24000</v>
@@ -5344,10 +5310,10 @@
         <v>1</v>
       </c>
       <c r="J156" s="12" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K156" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.35">
@@ -5355,7 +5321,7 @@
         <v>42670</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C157" s="12">
         <v>37.412950000000002</v>
@@ -5364,16 +5330,16 @@
         <v>76.709845000000001</v>
       </c>
       <c r="E157" s="19" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F157" s="19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G157" s="21">
         <v>3153072</v>
       </c>
       <c r="K157" s="12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.35">
@@ -5381,7 +5347,7 @@
         <v>42670</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C158" s="12">
         <v>37.412950000000002</v>
@@ -5390,16 +5356,16 @@
         <v>76.709845000000001</v>
       </c>
       <c r="E158" s="19" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F158" s="19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G158" s="21">
         <v>255840</v>
       </c>
       <c r="K158" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.35">
@@ -5407,7 +5373,7 @@
         <v>42690</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C159" s="12">
         <v>37.412950000000002</v>
@@ -5416,10 +5382,10 @@
         <v>76.709845000000001</v>
       </c>
       <c r="E159" s="19" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F159" s="19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G159" s="5">
         <v>7912000</v>
@@ -5428,10 +5394,10 @@
         <v>1</v>
       </c>
       <c r="J159" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K159" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
@@ -5439,7 +5405,7 @@
         <v>42690</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C160" s="12">
         <v>37.412950000000002</v>
@@ -5448,10 +5414,10 @@
         <v>76.709845000000001</v>
       </c>
       <c r="E160" s="19" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F160" s="19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G160" s="5">
         <v>0</v>
@@ -5463,7 +5429,7 @@
         <v>0.91900000000000004</v>
       </c>
       <c r="K160" s="12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="161" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -5471,7 +5437,7 @@
         <v>42704</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C161" s="25">
         <v>37.412950000000002</v>
@@ -5480,10 +5446,10 @@
         <v>76.709845000000001</v>
       </c>
       <c r="E161" s="23" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F161" s="23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G161" s="25">
         <v>0</v>
@@ -5496,7 +5462,7 @@
         <v>0.1525</v>
       </c>
       <c r="K161" s="25" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="162" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -5504,7 +5470,7 @@
         <v>42718</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C162" s="25">
         <v>37.412950000000002</v>
@@ -5513,10 +5479,10 @@
         <v>76.709845000000001</v>
       </c>
       <c r="E162" s="23" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F162" s="23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G162" s="25">
         <v>0</v>
@@ -5529,7 +5495,7 @@
         <v>0.182</v>
       </c>
       <c r="K162" s="25" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="163" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.35">
@@ -5537,7 +5503,7 @@
         <v>42718</v>
       </c>
       <c r="B163" s="23" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C163" s="25">
         <v>37.412950000000002</v>
@@ -5546,10 +5512,10 @@
         <v>76.709845000000001</v>
       </c>
       <c r="E163" s="23" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F163" s="23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G163" s="25">
         <v>0</v>
@@ -5562,7 +5528,7 @@
         <v>0.17799999999999999</v>
       </c>
       <c r="K163" s="25" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
